--- a/src/test/resources/testData/pim/suiteProductInputFile.xlsx
+++ b/src/test/resources/testData/pim/suiteProductInputFile.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\automationTesting\improvisedTestSuite\pimento-ui-test-master\pimento-ui-test-master\src\test\resources\testData\pim\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8327C753-5B23-467F-B5A6-1FDAE0119EF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -340,47 +349,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="Helvetica"/>
     </font>
@@ -390,7 +406,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -412,7 +428,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -426,8 +448,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -437,6 +461,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -445,97 +470,401 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="52.0"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,9 +929,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>21</v>
@@ -610,10 +939,10 @@
       <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="14">
         <v>16.5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -652,20 +981,20 @@
       <c r="Q2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="10"/>
+      <c r="R2" s="9"/>
       <c r="S2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="12">
-        <v>43397.0</v>
+      <c r="U2" s="11">
+        <v>43397</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>38</v>
@@ -673,7 +1002,7 @@
       <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="14">
         <v>16.5</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -715,20 +1044,20 @@
       <c r="Q3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="10"/>
+      <c r="R3" s="9"/>
       <c r="S3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U3" s="12">
-        <v>43398.0</v>
+      <c r="U3" s="11">
+        <v>43398</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
@@ -736,7 +1065,7 @@
       <c r="C4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="14">
         <v>21.11</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -778,20 +1107,20 @@
       <c r="Q4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="10"/>
+      <c r="R4" s="9"/>
       <c r="S4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="12">
-        <v>43399.0</v>
+      <c r="U4" s="11">
+        <v>43399</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>47</v>
@@ -799,7 +1128,7 @@
       <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="14">
         <v>10.45</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -841,20 +1170,20 @@
       <c r="Q5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R5" s="10"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U5" s="12">
-        <v>43400.0</v>
+      <c r="U5" s="11">
+        <v>43400</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>51</v>
@@ -862,7 +1191,7 @@
       <c r="C6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="14">
         <v>88.2</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -904,20 +1233,20 @@
       <c r="Q6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R6" s="10"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="12">
-        <v>43401.0</v>
+      <c r="U6" s="11">
+        <v>43401</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>56</v>
@@ -925,7 +1254,7 @@
       <c r="C7" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="14">
         <v>88.2</v>
       </c>
       <c r="E7" s="7" t="s">
@@ -967,20 +1296,20 @@
       <c r="Q7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="10"/>
+      <c r="R7" s="9"/>
       <c r="S7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="12">
-        <v>43402.0</v>
+      <c r="U7" s="11">
+        <v>43402</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>60</v>
@@ -988,7 +1317,7 @@
       <c r="C8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="14">
         <v>12.5</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -1030,20 +1359,20 @@
       <c r="Q8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="S8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="12">
-        <v>43403.0</v>
+      <c r="U8" s="11">
+        <v>43403</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>64</v>
@@ -1051,7 +1380,7 @@
       <c r="C9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="14">
         <v>18.25</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1093,20 +1422,20 @@
       <c r="Q9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="S9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U9" s="12">
-        <v>43404.0</v>
+      <c r="U9" s="11">
+        <v>43404</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>68</v>
@@ -1114,7 +1443,7 @@
       <c r="C10" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="14">
         <v>12.5</v>
       </c>
       <c r="E10" s="7" t="s">
@@ -1156,20 +1485,20 @@
       <c r="Q10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R10" s="10"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="12">
-        <v>43415.0</v>
+      <c r="U10" s="11">
+        <v>43415</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>72</v>
@@ -1177,7 +1506,7 @@
       <c r="C11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="14">
         <v>1.38</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1219,20 +1548,20 @@
       <c r="Q11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="12"/>
       <c r="S11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U11" s="12">
-        <v>43416.0</v>
+      <c r="U11" s="11">
+        <v>43416</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>77</v>
@@ -1240,7 +1569,7 @@
       <c r="C12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="14">
         <v>65.2</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -1282,20 +1611,20 @@
       <c r="Q12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="12"/>
       <c r="S12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="12">
-        <v>43417.0</v>
+      <c r="U12" s="11">
+        <v>43417</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>80</v>
@@ -1303,7 +1632,7 @@
       <c r="C13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="14">
         <v>2.56</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -1345,20 +1674,20 @@
       <c r="Q13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="13"/>
+      <c r="R13" s="12"/>
       <c r="S13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U13" s="12">
-        <v>43418.0</v>
+      <c r="U13" s="11">
+        <v>43418</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>82</v>
@@ -1366,7 +1695,7 @@
       <c r="C14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="14">
         <v>65.2</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -1408,20 +1737,20 @@
       <c r="Q14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R14" s="13"/>
+      <c r="R14" s="12"/>
       <c r="S14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="12">
-        <v>43419.0</v>
+      <c r="U14" s="11">
+        <v>43419</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>87</v>
@@ -1429,7 +1758,7 @@
       <c r="C15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="14">
         <v>65.2</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -1471,20 +1800,20 @@
       <c r="Q15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="12"/>
       <c r="S15" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U15" s="12">
-        <v>43420.0</v>
+      <c r="U15" s="11">
+        <v>43420</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:21" ht="15.75" customHeight="1">
       <c r="A16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>89</v>
@@ -1492,7 +1821,7 @@
       <c r="C16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="14">
         <v>18.25</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1534,20 +1863,20 @@
       <c r="Q16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R16" s="13"/>
+      <c r="R16" s="12"/>
       <c r="S16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="12">
-        <v>43421.0</v>
+      <c r="U16" s="11">
+        <v>43421</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:21" ht="102">
       <c r="A17" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>92</v>
@@ -1555,20 +1884,20 @@
       <c r="C17" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="10"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="9"/>
       <c r="F17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="7" t="s">
         <v>34</v>
       </c>
@@ -1576,21 +1905,21 @@
         <v>41</v>
       </c>
       <c r="R17" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="12">
-        <v>43422.0</v>
+      <c r="U17" s="11">
+        <v>43422</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:21" ht="102">
       <c r="A18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>96</v>
@@ -1598,22 +1927,22 @@
       <c r="C18" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="14">
         <v>70.25</v>
       </c>
-      <c r="E18" s="10"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="7" t="s">
         <v>34</v>
       </c>
@@ -1621,21 +1950,21 @@
         <v>41</v>
       </c>
       <c r="R18" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="S18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="12">
-        <v>43423.0</v>
+      <c r="U18" s="11">
+        <v>43423</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:21" ht="102">
       <c r="A19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>98</v>
@@ -1643,20 +1972,20 @@
       <c r="C19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="10"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="9"/>
       <c r="F19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="7" t="s">
         <v>34</v>
       </c>
@@ -1664,21 +1993,21 @@
         <v>41</v>
       </c>
       <c r="R19" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="12">
-        <v>43414.0</v>
+      <c r="U19" s="11">
+        <v>43414</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:21" ht="102">
       <c r="A20" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>100</v>
@@ -1686,20 +2015,20 @@
       <c r="C20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
       <c r="F20" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="7" t="s">
         <v>34</v>
       </c>
@@ -1707,33 +2036,33 @@
         <v>41</v>
       </c>
       <c r="R20" s="7">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="S20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="12">
-        <v>43415.0</v>
+      <c r="U20" s="11">
+        <v>43415</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:21" ht="51">
       <c r="A21" s="5">
-        <v>20.0</v>
-      </c>
-      <c r="B21" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="14">
         <v>68.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
         <v>84</v>
       </c>
@@ -1743,7 +2072,7 @@
       <c r="I21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="13" t="s">
         <v>104</v>
       </c>
       <c r="K21" s="7" t="s">
@@ -1767,59 +2096,60 @@
       <c r="Q21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R21" s="10"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="U21" s="12">
-        <v>43416.0</v>
+      <c r="U21" s="11">
+        <v>43416</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="T2"/>
-    <hyperlink r:id="rId3" ref="B3"/>
-    <hyperlink r:id="rId4" ref="T3"/>
-    <hyperlink r:id="rId5" ref="B4"/>
-    <hyperlink r:id="rId6" ref="T4"/>
-    <hyperlink r:id="rId7" ref="B5"/>
-    <hyperlink r:id="rId8" ref="T5"/>
-    <hyperlink r:id="rId9" ref="B6"/>
-    <hyperlink r:id="rId10" ref="T6"/>
-    <hyperlink r:id="rId11" ref="B7"/>
-    <hyperlink r:id="rId12" ref="T7"/>
-    <hyperlink r:id="rId13" ref="B8"/>
-    <hyperlink r:id="rId14" ref="T8"/>
-    <hyperlink r:id="rId15" ref="B9"/>
-    <hyperlink r:id="rId16" ref="T9"/>
-    <hyperlink r:id="rId17" ref="B10"/>
-    <hyperlink r:id="rId18" ref="T10"/>
-    <hyperlink r:id="rId19" ref="B11"/>
-    <hyperlink r:id="rId20" ref="T11"/>
-    <hyperlink r:id="rId21" ref="B12"/>
-    <hyperlink r:id="rId22" ref="T12"/>
-    <hyperlink r:id="rId23" ref="B13"/>
-    <hyperlink r:id="rId24" ref="T13"/>
-    <hyperlink r:id="rId25" ref="B14"/>
-    <hyperlink r:id="rId26" ref="T14"/>
-    <hyperlink r:id="rId27" ref="B15"/>
-    <hyperlink r:id="rId28" ref="T15"/>
-    <hyperlink r:id="rId29" ref="B16"/>
-    <hyperlink r:id="rId30" ref="T16"/>
-    <hyperlink r:id="rId31" ref="B17"/>
-    <hyperlink r:id="rId32" ref="T17"/>
-    <hyperlink r:id="rId33" ref="B18"/>
-    <hyperlink r:id="rId34" ref="T18"/>
-    <hyperlink r:id="rId35" ref="B19"/>
-    <hyperlink r:id="rId36" ref="T19"/>
-    <hyperlink r:id="rId37" ref="B20"/>
-    <hyperlink r:id="rId38" ref="T20"/>
-    <hyperlink r:id="rId39" ref="T21"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="T4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="T5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="T7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="T8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="T9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="T11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="T12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="T14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="T15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="T17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="T18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="T19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="T20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="T21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
   </hyperlinks>
-  <drawing r:id="rId40"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>